--- a/data/trans_dic/CONS_ANT-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANT-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,53%</t>
         </is>
       </c>
     </row>
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 7,16</t>
+          <t>0,89; 5,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,88; 7,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 5,33</t>
+          <t>1,28; 5,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 1,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,96; 6,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,94</t>
+          <t>1,41; 4,24</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,91%</t>
         </is>
       </c>
     </row>
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 4,38</t>
+          <t>0,89; 4,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,75; 4,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 4,08</t>
+          <t>0,62; 3,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 1,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,66; 3,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,47</t>
+          <t>1,02; 3,43</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>2,56%</t>
         </is>
       </c>
     </row>
@@ -905,54 +906,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>0,16; 1,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,41; 5,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 4,58</t>
+          <t>0,87; 4,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>0,6; 3,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,03; 3,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,1</t>
+          <t>1,47; 5,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>0,52; 2,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,72; 4,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,49</t>
+          <t>1,6; 4,11</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>1,38%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1016,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,9; 5,21</t>
+          <t>0,31; 2,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,54; 6,18</t>
+          <t>0,38; 3,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,84</t>
+          <t>0,4; 2,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,3; 5,46</t>
+          <t>0,38; 2,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 4,54</t>
+          <t>2,29; 8,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,06</t>
+          <t>0,67; 3,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,47</t>
+          <t>0,48; 1,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 4,03</t>
+          <t>1,15; 4,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,05</t>
+          <t>0,79; 2,61</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>1,91%</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 5,06</t>
+          <t>0,43; 2,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 3,0</t>
+          <t>1,35; 4,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,8</t>
+          <t>0,21; 1,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,72</t>
+          <t>0,14; 1,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,22</t>
+          <t>3,33; 7,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 3,09</t>
+          <t>1,51; 4,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,39</t>
+          <t>0,37; 1,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,95</t>
+          <t>2,68; 5,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,81</t>
+          <t>1,1; 3,1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>2,39%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,43</t>
+          <t>0,28; 2,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,11</t>
+          <t>1,37; 5,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,55</t>
+          <t>0,86; 3,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,86</t>
+          <t>0,58; 2,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,04</t>
+          <t>0,52; 4,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,87</t>
+          <t>1,68; 4,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,9</t>
+          <t>0,58; 1,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,84; 3,67</t>
+          <t>0,71; 3,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,67</t>
+          <t>1,6; 3,53</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>2,4%</t>
         </is>
       </c>
     </row>
@@ -1345,54 +1346,54 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,95</t>
+          <t>0,53; 2,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,19</t>
+          <t>0,0; 2,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,75</t>
+          <t>1,06; 3,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,89</t>
+          <t>0,96; 2,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,26; 7,49</t>
+          <t>3,7; 8,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,71</t>
+          <t>1,38; 4,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,37</t>
+          <t>0,95; 2,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,28; 5,09</t>
+          <t>2,51; 5,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,46</t>
+          <t>1,54; 3,41</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1402,47 +1403,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>2,1%</t>
         </is>
       </c>
     </row>
@@ -1455,398 +1456,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,45</t>
+          <t>0,57; 1,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,89</t>
+          <t>1,32; 2,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,78</t>
+          <t>1,26; 2,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,68; 4,99</t>
+          <t>0,7; 1,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,69; 5,08</t>
+          <t>2,41; 4,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,15</t>
+          <t>1,91; 3,18</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,31</t>
+          <t>0,72; 1,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,37; 4,16</t>
+          <t>2,1; 3,37</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,17</t>
+          <t>1,72; 2,53</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1,68%</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>2,58%</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>1,04%</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>3,33%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>2,72%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>1,08%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>2,43%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>2,67%</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>1,06%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>0,83; 2,9</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>1,53; 4,11</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>0,48; 2,09</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>1,94; 5,32</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>1,24; 4,2</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>0,54; 2,38</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>1,58; 3,48</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>1,68; 3,71</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>0,61; 1,71</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>2,29%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>2,85%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>1,15%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>2,66%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>4,63%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>1,55%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>2,49%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>3,93%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>1,38%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>1,23; 3,96</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>1,59; 5,07</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>0,48; 2,47</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>1,62; 4,45</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>3,18; 6,95</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 2,55</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>1,63; 3,7</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>2,85; 5,28</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 2,05</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,86%</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>2,32%</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>1,03%</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>2,56%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>3,22%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>0,97%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>2,21%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>2,8%</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>1,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>1,35; 2,45</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>1,81; 2,94</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>0,78; 1,39</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>1,99; 3,17</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>2,72; 4,11</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>0,73; 1,28</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>1,85; 2,62</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>2,38; 3,27</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>0,83; 1,21</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
@@ -1856,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos antibióticos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16/24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5558</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4130</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5602</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4493</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11160</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>8622</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1264</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 21129</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1520; 9569</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 585</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1620; 14702</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2181; 8835</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>97; 1543</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4038; 26111</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4812; 14438</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25/34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4108</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6488</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3414</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8889</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>7521</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1392</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 11804</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1629; 8876</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1345</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2358; 14583</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1309; 8018</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>104; 1949</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3582; 17519</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3998; 13489</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35/44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10143</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5207</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1529</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6933</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7496</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2139</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17075</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12703</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>147; 1560</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4371; 18103</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2172; 10249</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>586; 3298</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3328; 12333</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3646; 13200</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>996; 4091</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10909; 26321</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7946; 20424</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45/54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1213</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>9313</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2997</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1289</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>16059</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>4950</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2502</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>25371</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>7947</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>430; 3114</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2389; 21002</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1178; 6179</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>520; 2934</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>9263; 34550</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1862; 10687</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1342; 4589</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>11859; 43779</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>4568; 15059</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55/64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1388</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1770</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>15412</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7576</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>24805</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>9346</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>549; 3020</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4565; 15956</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>491; 4404</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>200; 1651</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>10632; 22368</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3846; 12614</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1021; 4114</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>17649; 33509</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>5398; 15153</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65/74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>911</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5878</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3256</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>9675</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>5656</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2361</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>15553</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>8912</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>299; 2241</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2859; 10617</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1583; 5824</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>663; 3226</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2338; 20500</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>3170; 8744</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1288; 4345</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>4689; 24933</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>5946; 13139</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 y más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1220</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>912</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>3240</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2220</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>13725</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>5378</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>3440</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>14637</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>8618</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>509; 2555</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 3208</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1550; 5416</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1282; 3696</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>8621; 20593</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2925; 9280</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2176; 5329</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>9643; 22001</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>5512; 12218</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>6010</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>43596</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>24707</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>7578</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>73893</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>38963</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>13588</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>117490</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>63670</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>3997; 8920</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>27825; 62117</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>18393; 32782</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>5305; 10446</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>53837; 96294</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>29815; 49682</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>10409; 17145</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>91167; 145885</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>51985; 76537</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_ANT-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANT-Edad-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos antibióticos</t>
+          <t>Consumo de medicamentos antibióticos (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1559,7 +1559,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos antibióticos</t>
+          <t>Consumo de medicamentos antibióticos (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_ANT-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANT-Edad-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,01</t>
+          <t>0,0; 1,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,94</t>
+          <t>0,0; 8,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,94</t>
+          <t>0,0; 1,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 7,97</t>
+          <t>0,9; 7,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1,23</t>
+          <t>0,0; 1,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 6,21</t>
+          <t>0,96; 6,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,01</t>
+          <t>0,0; 2,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,15</t>
+          <t>0,0; 4,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,15</t>
+          <t>0,0; 1,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 4,64</t>
+          <t>0,59; 4,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1,48</t>
+          <t>0,1; 1,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,22</t>
+          <t>0,73; 3,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,65</t>
+          <t>0,1; 2,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 5,83</t>
+          <t>1,52; 6,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,38</t>
+          <t>0,43; 2,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,82</t>
+          <t>1,17; 4,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,13</t>
+          <t>0,46; 1,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 4,16</t>
+          <t>1,72; 4,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,23</t>
+          <t>0,21; 1,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,35</t>
+          <t>0,25; 3,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,13</t>
+          <t>0,36; 1,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 8,53</t>
+          <t>2,11; 8,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,48; 1,65</t>
+          <t>0,41; 1,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,24</t>
+          <t>1,13; 4,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,38</t>
+          <t>0,34; 1,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,71</t>
+          <t>1,39; 4,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,12</t>
+          <t>0,19; 1,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,33; 7,01</t>
+          <t>3,36; 7,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,5</t>
+          <t>0,39; 1,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,68; 5,09</t>
+          <t>2,69; 5,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,08</t>
+          <t>0,3; 2,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,37; 5,1</t>
+          <t>1,35; 5,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,81</t>
+          <t>0,61; 2,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,53</t>
+          <t>0,48; 4,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,58; 1,95</t>
+          <t>0,63; 1,93</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,71; 3,77</t>
+          <t>0,78; 3,93</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,65</t>
+          <t>0,5; 2,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,12</t>
+          <t>0,0; 2,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,76</t>
+          <t>1,22; 3,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,7; 8,83</t>
+          <t>3,72; 9,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,31</t>
+          <t>1,11; 2,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,51; 5,72</t>
+          <t>2,44; 5,66</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,57; 1,28</t>
+          <t>0,52; 1,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,32; 2,96</t>
+          <t>1,33; 2,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,38</t>
+          <t>0,77; 1,43</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,41; 4,32</t>
+          <t>2,32; 4,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1486,12 +1486,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,72; 1,18</t>
+          <t>0,72; 1,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,1; 3,37</t>
+          <t>2,08; 3,37</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>416</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>158</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>574</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1766,12 +1766,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0; 1264</t>
+          <t>0; 1513</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0; 21129</t>
+          <t>0; 18912</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1781,12 +1781,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0; 585</t>
+          <t>0; 839</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1620; 14702</t>
+          <t>1664; 13992</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1796,12 +1796,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>97; 1543</t>
+          <t>0; 1587</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4038; 26111</t>
+          <t>4019; 26553</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>324</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>408</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>733</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1929,12 +1929,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1392</t>
+          <t>0; 1664</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 11804</t>
+          <t>0; 11282</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1944,12 +1944,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1345</t>
+          <t>0; 1283</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2358; 14583</t>
+          <t>1868; 13948</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>104; 1949</t>
+          <t>149; 2091</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3582; 17519</t>
+          <t>3952; 19985</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>724</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1529</t>
+          <t>1281</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2139</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -2092,12 +2092,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>147; 1560</t>
+          <t>107; 2209</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4371; 18103</t>
+          <t>4718; 18771</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2107,12 +2107,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>586; 3298</t>
+          <t>480; 2817</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3328; 12333</t>
+          <t>3779; 13011</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2122,12 +2122,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>996; 4091</t>
+          <t>996; 3864</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10909; 26321</t>
+          <t>10863; 28253</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1213</t>
+          <t>966</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1289</t>
+          <t>1293</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2502</t>
+          <t>2259</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>430; 3114</t>
+          <t>309; 2199</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2389; 21002</t>
+          <t>1554; 20793</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2270,12 +2270,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>520; 2934</t>
+          <t>546; 2759</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9263; 34550</t>
+          <t>8523; 36293</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2285,12 +2285,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1342; 4589</t>
+          <t>1221; 3966</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11859; 43779</t>
+          <t>11696; 46449</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1388</t>
+          <t>1091</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>981</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2072</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2418,12 +2418,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>549; 3020</t>
+          <t>442; 2431</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4565; 15956</t>
+          <t>4727; 16584</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2433,12 +2433,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>200; 1651</t>
+          <t>291; 2334</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>10632; 22368</t>
+          <t>10713; 22490</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1021; 4114</t>
+          <t>1085; 3717</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>17649; 33509</t>
+          <t>17673; 34158</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>911</t>
+          <t>909</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1450</t>
+          <t>1525</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>2361</t>
+          <t>2434</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2581,12 +2581,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>299; 2241</t>
+          <t>316; 2111</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2859; 10617</t>
+          <t>2810; 10678</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>663; 3226</t>
+          <t>712; 3211</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2338; 20500</t>
+          <t>2154; 20080</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2611,12 +2611,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1288; 4345</t>
+          <t>1388; 4259</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4689; 24933</t>
+          <t>5172; 25969</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1220</t>
+          <t>1077</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2220</t>
+          <t>2807</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>3440</t>
+          <t>3884</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>509; 2555</t>
+          <t>444; 2132</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0; 3208</t>
+          <t>0; 3178</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1282; 3696</t>
+          <t>1609; 4571</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>8621; 20593</t>
+          <t>8667; 21283</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2774,12 +2774,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>2176; 5329</t>
+          <t>2470; 5792</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>9643; 22001</t>
+          <t>9383; 21780</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>5507</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>7578</t>
+          <t>8453</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>13588</t>
+          <t>13960</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -2907,12 +2907,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>3997; 8920</t>
+          <t>3775; 8144</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>27825; 62117</t>
+          <t>27904; 61815</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -2922,12 +2922,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>5305; 10446</t>
+          <t>6142; 11409</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>53837; 96294</t>
+          <t>51655; 96127</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>10409; 17145</t>
+          <t>11025; 17848</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>91167; 145885</t>
+          <t>90236; 145916</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_ANT-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANT-Edad-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2,31%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2,43%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,54%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,35%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,43%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>3,74%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2,64%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0,24%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>3,04%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,64%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>2,99%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2,53%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>0,4%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>2,65%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>2,53%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 7,56</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,89; 5,62</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>0,0; 1,97</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 8,01</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,89; 5,62</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>1,34; 8,37</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1,28; 5,18</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>0,0; 1,27</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 7,59</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>1,28; 5,18</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>1,1; 6,14</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1,41; 4,24</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>0,0; 1,11</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,96; 6,31</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>1,41; 4,24</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2,25%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,43%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,05%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,25%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>2,83%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1,61%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>0,6%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2,06%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1,61%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>2,38%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1,91%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>0,51%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>1,63%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>1,91%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,0; 6,71</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,89; 4,87</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0,0; 2,22</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,92</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,89; 4,87</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>1,27; 5,49</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,62; 3,79</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0,0; 1,89</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,59; 4,44</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,62; 3,79</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>1,11; 4,66</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1,02; 3,43</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>0,1; 1,46</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0,73; 3,68</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>1,02; 3,43</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,8%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,1%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,7%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,26%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,1%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>2,21%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3,01%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>1,16%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,15%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3,01%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2,56%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>0,93%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>2,7%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>2,56%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>1,26; 4,99</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,87; 4,13</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>0,1; 2,12</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,52; 6,04</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,87; 4,13</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>1,2; 3,88</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1,47; 5,31</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>0,43; 2,54</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>1,17; 4,03</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,47; 5,31</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>1,6; 4,01</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1,6; 4,11</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>0,46; 1,8</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>1,72; 4,46</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>1,6; 4,11</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>2,23%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,01%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,67%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,48%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,01%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>2,88%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1,77%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>0,85%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>3,97%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,77%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>2,56%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1,38%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>0,76%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>2,46%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>1,38%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>1,06; 4,3</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 2,08</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>0,21; 1,52</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,25; 3,32</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,4; 2,08</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>1,77; 4,49</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 3,83</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>0,36; 1,81</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>2,11; 8,97</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0,67; 3,83</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>1,73; 3,78</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0,79; 2,61</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>0,41; 1,33</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>1,13; 4,5</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>0,79; 2,61</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>2,54%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,75%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,84%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,77%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,75%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>5,47%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2,98%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>0,65%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>4,83%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2,98%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>3,99%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,91%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>0,74%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>3,77%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>1,91%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>1,26; 4,47</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 1,88</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>0,34; 1,88</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,39; 4,89</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,21; 1,88</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>3,69; 7,65</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1,51; 4,96</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>0,19; 1,54</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>3,36; 7,05</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>1,51; 4,96</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>2,94; 5,51</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,1; 3,1</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>0,39; 1,32</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>2,69; 5,19</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>1,1; 3,1</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>2,71%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1,77%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0,87%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,82%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,77%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>4,06%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3,0%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>1,32%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>2,14%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>3,0%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>3,44%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2,39%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>1,11%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>2,35%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>2,39%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>1,33; 4,98</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,86; 3,16</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>0,3; 2,02</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,35; 5,13</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,86; 3,16</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>2,45; 6,37</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1,68; 4,63</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>0,61; 2,77</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0,48; 4,44</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>1,68; 4,63</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>2,28; 4,96</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1,6; 3,53</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>0,63; 1,93</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,78; 3,93</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>1,6; 3,53</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,56%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2,21%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>1,21%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,6%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,21%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>6,15%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2,54%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>2,12%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>5,88%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>2,54%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>3,96%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2,4%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>1,75%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>3,81%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>2,4%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,0; 1,95</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1,06; 3,7</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>0,5; 2,39</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,1</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1,06; 3,7</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>3,8; 9,42</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1,38; 4,38</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>1,22; 3,45</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>3,72; 9,12</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>1,38; 4,38</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>2,58; 5,88</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1,54; 3,41</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>1,11; 2,61</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>2,44; 5,66</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>1,54; 3,41</t>
         </is>
       </c>
     </row>
@@ -1403,47 +1403,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>2,27%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1,69%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>0,76%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>2,07%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>1,69%</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>3,8%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2,49%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>1,06%</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>3,31%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>2,49%</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>3,06%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2,1%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>0,92%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>2,71%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>2,1%</t>
         </is>
       </c>
     </row>
@@ -1456,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>1,6; 3,12</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1,26; 2,24</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>0,52; 1,13</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>1,33; 2,94</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>1,26; 2,24</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>3,12; 4,61</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1,91; 3,18</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>0,77; 1,43</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>2,32; 4,31</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>1,91; 3,18</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>2,58; 3,61</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1,72; 2,53</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>0,72; 1,17</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>2,08; 3,37</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>1,72; 2,53</t>
         </is>
       </c>
     </row>
@@ -1590,47 +1590,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1665,42 +1665,42 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
         </is>
       </c>
     </row>
@@ -1713,47 +1713,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>5566</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4130</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>416</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>5558</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>4130</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>8212</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4493</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>158</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>5602</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>4493</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>13778</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>8622</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>574</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>11160</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>8622</t>
         </is>
       </c>
     </row>
@@ -1766,47 +1766,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0; 18228</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1520; 9569</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0; 1513</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0; 18912</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1520; 9569</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>2942; 18391</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2181; 8835</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>0; 839</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1664; 13992</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2181; 8835</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>5071; 28311</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4812; 14438</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>0; 1587</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>4019; 26553</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>4812; 14438</t>
         </is>
       </c>
     </row>
@@ -1823,47 +1823,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
         </is>
       </c>
     </row>
@@ -1876,47 +1876,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>4970</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4108</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>324</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2400</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4108</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>8021</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3414</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>408</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>6488</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3414</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>12991</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7521</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>733</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>8889</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>7521</t>
         </is>
       </c>
     </row>
@@ -1929,47 +1929,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0; 17587</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1629; 8876</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>0; 1664</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0; 11282</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1629; 8876</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>3600; 15556</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1309; 8018</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>0; 1283</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>1868; 13948</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1309; 8018</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>6052; 25425</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3998; 13489</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>149; 2091</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>3952; 19985</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>3998; 13489</t>
         </is>
       </c>
     </row>
@@ -1986,47 +1986,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>19</t>
         </is>
       </c>
     </row>
@@ -2039,47 +2039,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>10315</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5207</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>724</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>10143</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>5207</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>8262</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7496</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>1281</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>6933</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>7496</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>18577</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>12703</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>2004</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>17075</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>12703</t>
         </is>
       </c>
     </row>
@@ -2092,47 +2092,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>4654; 18370</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2172; 10249</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>107; 2209</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4718; 18771</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2172; 10249</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>4472; 14503</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3646; 13200</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>480; 2817</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>3779; 13011</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>3646; 13200</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>11854; 29723</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7946; 20424</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>996; 3864</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>10863; 28253</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>7946; 20424</t>
         </is>
       </c>
     </row>
@@ -2149,47 +2149,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
         </is>
       </c>
     </row>
@@ -2202,47 +2202,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>9442</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2997</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>966</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>9313</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2997</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>12722</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4950</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>1293</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>16059</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>4950</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>22164</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7947</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>2259</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>25371</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>7947</t>
         </is>
       </c>
     </row>
@@ -2255,47 +2255,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>4478; 18239</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1178; 6179</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>309; 2199</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1554; 20793</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1178; 6179</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>7790; 19833</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1862; 10687</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>546; 2759</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>8523; 36293</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>1862; 10687</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>14955; 32712</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>4568; 15059</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>1221; 3966</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>11696; 46449</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>4568; 15059</t>
         </is>
       </c>
     </row>
@@ -2312,47 +2312,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>11</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
         </is>
       </c>
     </row>
@@ -2365,47 +2365,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>9356</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1770</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>1091</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>9393</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1770</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>19724</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>7576</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>981</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>15412</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>7576</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>29080</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>9346</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>2072</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>24805</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>9346</t>
         </is>
       </c>
     </row>
@@ -2418,47 +2418,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>4654; 16460</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>491; 4404</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>442; 2431</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>4727; 16584</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>491; 4404</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>13300; 27559</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3846; 12614</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>291; 2334</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>10713; 22490</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>3846; 12614</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>21435; 40113</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5398; 15153</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>1085; 3717</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>17673; 34158</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>5398; 15153</t>
         </is>
       </c>
     </row>
@@ -2475,47 +2475,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>15</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>26</t>
         </is>
       </c>
     </row>
@@ -2528,47 +2528,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>6270</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3256</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>909</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>5878</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>3256</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>10967</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>5656</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>1525</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>9675</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>5656</t>
-        </is>
-      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>17237</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>8912</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>2434</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>15553</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>8912</t>
         </is>
       </c>
     </row>
@@ -2581,47 +2581,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>3078; 11526</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1583; 5824</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>316; 2111</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>2810; 10678</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>1583; 5824</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>6607; 17191</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3170; 8744</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>712; 3211</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>2154; 20080</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>3170; 8744</t>
-        </is>
-      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>11427; 24876</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>5946; 13139</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>1388; 4259</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>5172; 25969</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>5946; 13139</t>
         </is>
       </c>
     </row>
@@ -2638,47 +2638,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>23</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
         </is>
       </c>
     </row>
@@ -2691,47 +2691,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>3240</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>1077</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>912</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>3240</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>15762</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>5378</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>2807</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>13725</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>5378</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>16682</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>8618</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>3884</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>14637</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>8618</t>
         </is>
       </c>
     </row>
@@ -2744,47 +2744,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>0; 3224</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1550; 5416</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>444; 2132</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0; 3178</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>1550; 5416</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>9747; 24135</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2925; 9280</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>1609; 4571</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>8667; 21283</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>2925; 9280</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>10870; 24774</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>5512; 12218</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>2470; 5792</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>9383; 21780</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>5512; 12218</t>
         </is>
       </c>
     </row>
@@ -2801,47 +2801,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
           <t>46</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
           <t>76</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>125</t>
         </is>
       </c>
     </row>
@@ -2854,47 +2854,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
+          <t>46841</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>24707</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
           <t>5507</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>43596</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>24707</t>
-        </is>
-      </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
+          <t>83670</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>38963</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
           <t>8453</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>73893</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>38963</t>
-        </is>
-      </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
+          <t>130511</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>63670</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
           <t>13960</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>117490</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>63670</t>
         </is>
       </c>
     </row>
@@ -2907,47 +2907,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>32873; 64200</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>18393; 32782</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
           <t>3775; 8144</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>27904; 61815</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>18393; 32782</t>
-        </is>
-      </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
+          <t>68851; 101612</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>29815; 49682</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
           <t>6142; 11409</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>51655; 96127</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>29815; 49682</t>
-        </is>
-      </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
+          <t>109858; 153731</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>51985; 76537</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
           <t>11025; 17848</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>90236; 145916</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>51985; 76537</t>
         </is>
       </c>
     </row>
